--- a/개척교회/WBS_Save_the_Web.xlsx
+++ b/개척교회/WBS_Save_the_Web.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
   <si>
     <t>작업자</t>
   </si>
@@ -1128,7 +1128,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.95" customHeight="1"/>
@@ -1333,12 +1333,8 @@
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="30"/>
-      <c r="E4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="37">
-        <v>3</v>
-      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1374,12 +1370,8 @@
         <v>38</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="37">
-        <v>3</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
